--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0A22174-DFB0-4549-95DB-BCCEC5AA859D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EB48D89-DF75-4318-80B3-E4D3C336CE7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$7:$D$24,Specifications!$C$28:$D$37,Specifications!$C$39:$D$48</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="85">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +46,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -105,21 +103,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BillingStreet</t>
-  </si>
-  <si>
-    <t>BillingCity</t>
-  </si>
-  <si>
-    <t>BillingState</t>
-  </si>
-  <si>
-    <t>BillingPostalCode</t>
-  </si>
-  <si>
-    <t>BillingCountry</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
@@ -193,9 +176,6 @@
   </si>
   <si>
     <t>Question Type</t>
-  </si>
-  <si>
-    <t>dropdown</t>
   </si>
   <si>
     <t>multiselect</t>
@@ -277,9 +257,6 @@
   </si>
   <si>
     <t>not used</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Title of Template</t>
@@ -2560,10 +2537,10 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2577,14 +2554,14 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2595,7 +2572,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2610,39 +2587,39 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="43" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="107" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H4" s="107"/>
       <c r="I4" s="107"/>
       <c r="J4" s="7"/>
       <c r="K4" s="107" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
       <c r="O4" s="107" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P4" s="107"/>
       <c r="Q4" s="107"/>
       <c r="S4" s="101" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T4" s="102"/>
       <c r="U4" s="103"/>
       <c r="W4" s="101" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X4" s="102"/>
       <c r="Y4" s="103"/>
@@ -2650,59 +2627,59 @@
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O6" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P6" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S6" s="95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T6" s="96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="U6" s="97" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W6" s="95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X6" s="96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="97" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2730,39 +2707,41 @@
     </row>
     <row r="8" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="68"/>
       <c r="G8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="82" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="82" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="82"/>
       <c r="S8" s="81" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T8" s="69" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U8" s="82"/>
       <c r="W8" s="81"/>
@@ -2771,39 +2750,41 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>72</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="52"/>
       <c r="G9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="84"/>
       <c r="S9" s="87" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="U9" s="84"/>
       <c r="W9" s="83"/>
@@ -2812,28 +2793,30 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="52"/>
       <c r="G10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="5"/>
@@ -2847,28 +2830,30 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="52"/>
       <c r="G11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O11" s="83"/>
       <c r="P11" s="5"/>
@@ -2882,31 +2867,35 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="52"/>
       <c r="G12" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="83"/>
       <c r="L12" s="5"/>
       <c r="M12" s="84"/>
       <c r="O12" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q12" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S12" s="83"/>
       <c r="T12" s="5"/>
@@ -2917,33 +2906,39 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="52"/>
       <c r="G13" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="80" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="80" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Q13" s="80" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S13" s="83"/>
       <c r="T13" s="5"/>
@@ -2954,35 +2949,39 @@
     </row>
     <row r="14" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D14" s="67"/>
       <c r="E14" s="68"/>
       <c r="G14" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J14" s="70"/>
       <c r="K14" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="M14" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S14" s="85"/>
       <c r="T14" s="71"/>
@@ -2993,33 +2992,39 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="52"/>
       <c r="G15" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="88" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="88" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="Q15" s="88" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S15" s="83"/>
       <c r="T15" s="5"/>
@@ -3030,33 +3035,39 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="52"/>
       <c r="G16" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O16" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S16" s="83"/>
       <c r="T16" s="5"/>
@@ -3067,33 +3078,39 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="52"/>
       <c r="G17" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I17" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S17" s="83"/>
       <c r="T17" s="5"/>
@@ -3104,33 +3121,39 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="52"/>
       <c r="G18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="5"/>
@@ -3141,28 +3164,34 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="52"/>
       <c r="G19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="83"/>
+        <v>48</v>
+      </c>
+      <c r="O19" s="83" t="s">
+        <v>14</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="84"/>
       <c r="S19" s="83"/>
@@ -3178,31 +3207,35 @@
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="68"/>
       <c r="G20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="I20" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="M20" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="71"/>
+      <c r="P20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="Q20" s="86" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S20" s="85"/>
       <c r="T20" s="71"/>
@@ -3216,25 +3249,27 @@
         <v>1</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="52"/>
       <c r="G21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="84" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="O21" s="83"/>
       <c r="P21" s="5"/>
@@ -3257,9 +3292,11 @@
       <c r="G22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I22" s="80" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="79"/>
@@ -3268,9 +3305,11 @@
       <c r="O22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="Q22" s="80" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S22" s="79"/>
       <c r="T22" s="6"/>
@@ -3345,106 +3384,106 @@
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="G26" s="108" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H26" s="109"/>
       <c r="I26" s="110"/>
       <c r="J26" s="18"/>
       <c r="K26" s="111" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L26" s="112"/>
       <c r="M26" s="113"/>
       <c r="N26" s="18"/>
       <c r="O26" s="111" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P26" s="112"/>
       <c r="Q26" s="113"/>
       <c r="R26" s="18"/>
       <c r="S26" s="104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="T26" s="105"/>
       <c r="U26" s="106"/>
       <c r="V26" s="18"/>
       <c r="W26" s="104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X26" s="105"/>
       <c r="Y26" s="106"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H27" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K27" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L27" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M27" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O27" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P27" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S27" s="98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T27" s="99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="U27" s="100" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W27" s="98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X27" s="99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="100" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="34"/>
@@ -3452,7 +3491,7 @@
       <c r="G28" s="83"/>
       <c r="H28" s="5"/>
       <c r="I28" s="84" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K28" s="83"/>
       <c r="L28" s="5"/>
@@ -3469,10 +3508,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="35"/>
@@ -3480,7 +3519,7 @@
       <c r="G29" s="83"/>
       <c r="H29" s="5"/>
       <c r="I29" s="84" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K29" s="83"/>
       <c r="L29" s="5"/>
@@ -3497,10 +3536,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
@@ -3523,10 +3562,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
@@ -3549,7 +3588,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="41"/>
@@ -3573,7 +3612,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="41"/>
@@ -3597,7 +3636,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="41"/>
@@ -3621,7 +3660,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="41"/>
@@ -3645,7 +3684,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="41"/>
@@ -3669,7 +3708,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
@@ -3693,65 +3732,65 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H38" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I38" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L38" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M38" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O38" s="93" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P38" s="92" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S38" s="98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T38" s="99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="U38" s="100" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W38" s="98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X38" s="99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y38" s="100" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="40"/>
@@ -3775,7 +3814,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="41"/>
@@ -3799,7 +3838,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="41"/>
@@ -3823,7 +3862,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="41"/>
@@ -3847,7 +3886,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="41"/>
@@ -3871,7 +3910,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="41"/>
@@ -3895,7 +3934,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="41"/>
@@ -3919,7 +3958,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="41"/>
@@ -3943,7 +3982,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="41"/>
@@ -3967,7 +4006,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="42"/>
@@ -3998,68 +4037,68 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H50" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I50" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L50" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M50" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O50" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P50" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S50" s="95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T50" s="96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="U50" s="97" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W50" s="95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X50" s="96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y50" s="97" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B51" s="114" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C51" s="115"/>
       <c r="D51" s="116"/>
@@ -4082,10 +4121,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C52" s="118"/>
       <c r="D52" s="119"/>
@@ -4108,10 +4147,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C53" s="118"/>
       <c r="D53" s="119"/>
@@ -4134,10 +4173,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C54" s="118"/>
       <c r="D54" s="119"/>
@@ -4160,24 +4199,24 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C55" s="118"/>
       <c r="D55" s="119"/>
       <c r="E55" s="46" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I55" s="84" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K55" s="83"/>
       <c r="L55" s="5"/>
@@ -4326,7 +4365,7 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AsMh6x4Ii2n55NOyXvFJ5uEIEg9C2iFnu0EWL49HiaO04pGDXItv3Cl/X18zZskjVbeOQYUwgTW2TM/r3sOJJQ==" saltValue="v5uCSYaCoAeNoNxwXmgxJQ==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
     <protectedRange sqref="A7:Q24" name="Contact Fields"/>
@@ -4402,6 +4441,14 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{B333DC21-47CF-41AE-AA0A-3365F97E33BC}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{645336C9-8E20-41D4-993E-FB252E47E742}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SugarCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC263C-5E94-4E32-A721-512784C8EB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7D853-95F7-4B60-BA4B-37E537AFE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2BF41519-5436-48D6-BB34-0C07E63E0430}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{24A962A2-D62E-4FAA-9ADE-D714B7D3B263}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
@@ -107,25 +145,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>Sugar: Custom Entity</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sugar: Custom Entity </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(optional)</t>
-    </r>
   </si>
   <si>
     <t>this is a note</t>
@@ -368,14 +387,33 @@
     <t>SugarCRM: Prospect</t>
   </si>
   <si>
-    <t>SugarCRM: Custom Entity</t>
+    <r>
+      <t xml:space="preserve">Sugar: Additional Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sugar: Additional Entity</t>
+  </si>
+  <si>
+    <t>SugarCRM: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +501,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2050,32 +2095,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2095,17 +2125,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3222,157 +3267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>973015</xdr:colOff>
+      <xdr:colOff>911469</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5732584" y="9771185"/>
-          <a:ext cx="205157" cy="203688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 79428"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Pfeil: nach rechts 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA8741D-5F51-4FF8-9BB7-CDEEB1D76471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5720275" y="9776460"/>
-          <a:ext cx="206915" cy="202516"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 79428"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14255</xdr:rowOff>
+      <xdr:rowOff>23780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>153866</xdr:colOff>
+      <xdr:colOff>115766</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
+      <xdr:rowOff>16453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3387,8 +3290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5582529" y="5971190"/>
-          <a:ext cx="370157" cy="213653"/>
+          <a:off x="5531094" y="5795930"/>
+          <a:ext cx="366347" cy="211748"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3529,7 +3432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="8477250"/>
+          <a:off x="5572125" y="8486775"/>
           <a:ext cx="366347" cy="211748"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3873,12 +3776,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3916,7 +3819,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3937,44 +3840,44 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="29"/>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="150" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="S4" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="150" t="s">
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="W4" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
+      <c r="AA4" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="W4" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="149"/>
-      <c r="AA4" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="134"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4076,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -4085,20 +3988,20 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="55"/>
@@ -4109,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U8" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W8" s="111" t="s">
         <v>18</v>
@@ -4127,27 +4030,27 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="34"/>
       <c r="G9" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="56" t="s">
         <v>17</v>
@@ -4157,10 +4060,10 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="56"/>
       <c r="S9" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U9" s="56" t="s">
         <v>17</v>
@@ -4178,27 +4081,27 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="34"/>
       <c r="G10" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" s="56" t="s">
         <v>17</v>
@@ -4208,10 +4111,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="56"/>
       <c r="S10" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U10" s="56" t="s">
         <v>17</v>
@@ -4225,46 +4128,46 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="34"/>
       <c r="G11" s="55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U11" s="56" t="s">
         <v>17</v>
@@ -4288,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>17</v>
@@ -4298,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="56" t="s">
         <v>17</v>
@@ -4308,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="56" t="s">
         <v>17</v>
@@ -4317,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U12" s="56" t="s">
         <v>17</v>
@@ -4341,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="54" t="s">
         <v>17</v>
@@ -4351,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="54" t="s">
         <v>17</v>
@@ -4361,7 +4264,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="54" t="s">
         <v>17</v>
@@ -4370,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U13" s="54" t="s">
         <v>17</v>
@@ -4394,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="58" t="s">
         <v>17</v>
@@ -4404,7 +4307,7 @@
         <v>6</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="58" t="s">
         <v>17</v>
@@ -4414,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="58" t="s">
         <v>17</v>
@@ -4423,7 +4326,7 @@
         <v>6</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U14" s="58" t="s">
         <v>17</v>
@@ -4447,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="60" t="s">
         <v>17</v>
@@ -4457,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15" s="60" t="s">
         <v>17</v>
@@ -4467,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="60" t="s">
         <v>17</v>
@@ -4476,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U15" s="60" t="s">
         <v>17</v>
@@ -4490,46 +4393,46 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="34"/>
       <c r="G16" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U16" s="56" t="s">
         <v>17</v>
@@ -4553,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="56" t="s">
         <v>17</v>
@@ -4563,7 +4466,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" s="56" t="s">
         <v>17</v>
@@ -4573,7 +4476,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="56" t="s">
         <v>17</v>
@@ -4582,7 +4485,7 @@
         <v>8</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>17</v>
@@ -4606,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I18" s="56" t="s">
         <v>17</v>
@@ -4616,17 +4519,17 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M18" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="56" t="s">
         <v>17</v>
@@ -4635,7 +4538,7 @@
         <v>9</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U18" s="56" t="s">
         <v>17</v>
@@ -4649,27 +4552,27 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="34"/>
       <c r="G19" s="55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M19" s="56" t="s">
         <v>17</v>
@@ -4679,10 +4582,10 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="56"/>
       <c r="S19" s="55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U19" s="56" t="s">
         <v>17</v>
@@ -4706,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>17</v>
@@ -4716,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20" s="58" t="s">
         <v>17</v>
@@ -4726,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="58" t="s">
         <v>17</v>
@@ -4735,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U20" s="58" t="s">
         <v>17</v>
@@ -4759,7 +4662,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>17</v>
@@ -4769,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M21" s="56" t="s">
         <v>17</v>
@@ -4779,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="56" t="s">
         <v>17</v>
@@ -4788,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U21" s="56" t="s">
         <v>17</v>
@@ -4812,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" s="54" t="s">
         <v>17</v>
@@ -4822,17 +4725,17 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M22" s="54" t="s">
         <v>17</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="54" t="s">
         <v>17</v>
@@ -4849,17 +4752,17 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="34"/>
       <c r="G23" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="54" t="s">
         <v>17</v>
@@ -4884,17 +4787,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="65"/>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
       <c r="G24" s="53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I24" s="54" t="s">
         <v>17</v>
@@ -4968,41 +4871,41 @@
     </row>
     <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="128" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
-      <c r="G27" s="141" t="s">
+      <c r="G27" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="141" t="s">
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="141" t="s">
-        <v>95</v>
-      </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="143"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="138"/>
       <c r="V27" s="71"/>
-      <c r="W27" s="144" t="s">
+      <c r="W27" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="146"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="141"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="122" t="s">
         <v>96</v>
@@ -5012,10 +4915,10 @@
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -5079,15 +4982,15 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="76"/>
       <c r="E29" s="78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="53"/>
       <c r="H29" s="6"/>
@@ -5110,7 +5013,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
@@ -5137,7 +5040,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
@@ -5164,7 +5067,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
@@ -5191,7 +5094,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="81"/>
       <c r="C33" s="82"/>
@@ -5218,7 +5121,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="81"/>
       <c r="C34" s="82"/>
@@ -5245,7 +5148,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
@@ -5272,7 +5175,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
@@ -5299,7 +5202,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
@@ -5326,7 +5229,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="81"/>
       <c r="C38" s="82"/>
@@ -5353,7 +5256,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="84"/>
       <c r="C39" s="85"/>
@@ -5405,10 +5308,10 @@
     </row>
     <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -5472,7 +5375,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
@@ -5499,7 +5402,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="82"/>
@@ -5526,7 +5429,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="81"/>
       <c r="C44" s="82"/>
@@ -5553,7 +5456,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" s="81"/>
       <c r="C45" s="82"/>
@@ -5580,7 +5483,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="81"/>
       <c r="C46" s="82"/>
@@ -5607,7 +5510,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="81"/>
       <c r="C47" s="82"/>
@@ -5634,7 +5537,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="81"/>
       <c r="C48" s="82"/>
@@ -5661,7 +5564,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="81"/>
       <c r="C49" s="82"/>
@@ -5688,7 +5591,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="81"/>
       <c r="C50" s="82"/>
@@ -5715,7 +5618,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="84"/>
       <c r="C51" s="85"/>
@@ -5846,13 +5749,13 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
+        <v>82</v>
+      </c>
+      <c r="B55" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
       <c r="E55" s="30"/>
       <c r="G55" s="95"/>
       <c r="H55" s="5"/>
@@ -5875,13 +5778,13 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="31"/>
       <c r="G56" s="95"/>
       <c r="H56" s="5"/>
@@ -5904,13 +5807,13 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
+        <v>85</v>
+      </c>
+      <c r="B57" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="146"/>
+      <c r="D57" s="147"/>
       <c r="E57" s="31"/>
       <c r="G57" s="95"/>
       <c r="H57" s="5"/>
@@ -5933,13 +5836,13 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
+        <v>87</v>
+      </c>
+      <c r="B58" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="31"/>
       <c r="G58" s="95"/>
       <c r="H58" s="5"/>
@@ -5962,9 +5865,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="31"/>
       <c r="G59" s="95"/>
       <c r="H59" s="5"/>
@@ -5987,9 +5890,9 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="31"/>
       <c r="G60" s="95"/>
       <c r="H60" s="5"/>
@@ -6012,9 +5915,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="31"/>
       <c r="G61" s="95"/>
       <c r="H61" s="5"/>
@@ -6037,9 +5940,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="31"/>
       <c r="G62" s="95"/>
       <c r="H62" s="5"/>
@@ -6062,9 +5965,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="31"/>
       <c r="G63" s="95"/>
       <c r="H63" s="5"/>
@@ -6087,9 +5990,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="31"/>
       <c r="G64" s="95"/>
       <c r="H64" s="5"/>
@@ -6112,9 +6015,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="134"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="32"/>
       <c r="G65" s="97"/>
       <c r="H65" s="98"/>
@@ -6151,28 +6054,28 @@
     <protectedRange sqref="A55:Y65 AA55:AC65" name="Contact Fields_1_1"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:J26 O26:AK26 R8:R25 V10:AK25 V8:V9 Z8:AK9">
@@ -6512,23 +6415,39 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC25 Q7:Q25 M7:M25 I7:I25 Y7:Y25 U7:U25 Q42:Q52 I42:I52 M42:M52 U42:U52" xr:uid="{431B3996-F270-4C15-ABC5-F3DE1B386E1A}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42:Y52 Q29:Q40 M29:M40 I29:I40 AC42:AC52 AC29:AC40 Y29:Y40 U29:U40 U55:U65 Q55:Q65 Y55:Y65 M55:M65 I55:I65 AC55:AC65" xr:uid="{A3F4F595-1876-481E-8AE6-637BC10AB6B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40" xr:uid="{A3F4F595-1876-481E-8AE6-637BC10AB6B0}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y24 Y25 AC7:AC25 I29:I40 M29:M40 Q29:Q40 U29:U39 Y29:Y40 AC29:AC40 I42:I52 M42:M52 Q42:Q52 U42:U51 U52 Y42:Y52 AC42:AC52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65 AC55:AC65" xr:uid="{8C7241BA-CE4A-4245-93A2-10C20438FE36}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6737,22 +6656,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6769,29 +6698,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7D853-95F7-4B60-BA4B-37E537AFE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26800DCF-498C-4CE5-AF34-EA2FC4572EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18630" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2095,17 +2095,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2125,38 +2140,67 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="93">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3155,11 +3199,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="88"/>
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="92"/>
+      <tableStyleElement type="headerRow" dxfId="91"/>
+      <tableStyleElement type="firstColumn" dxfId="90"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3780,8 +3824,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,38 +3890,38 @@
         <v>52</v>
       </c>
       <c r="E4" s="29"/>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="135" t="s">
+      <c r="O4" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="S4" s="135" t="s">
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="W4" s="132" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="W4" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134"/>
-      <c r="AA4" s="132" t="s">
+      <c r="X4" s="148"/>
+      <c r="Y4" s="149"/>
+      <c r="AA4" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="134"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="149"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4877,35 +4921,35 @@
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="70"/>
-      <c r="K27" s="136" t="s">
+      <c r="K27" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
       <c r="N27" s="70"/>
-      <c r="O27" s="136" t="s">
+      <c r="O27" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="143"/>
       <c r="R27" s="71"/>
-      <c r="S27" s="136" t="s">
+      <c r="S27" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="143"/>
       <c r="V27" s="71"/>
-      <c r="W27" s="139" t="s">
+      <c r="W27" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="141"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="146"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="122" t="s">
         <v>96</v>
@@ -5751,11 +5795,11 @@
       <c r="A55" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="142" t="s">
+      <c r="B55" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="144"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="30"/>
       <c r="G55" s="95"/>
       <c r="H55" s="5"/>
@@ -5780,11 +5824,11 @@
       <c r="A56" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="31"/>
       <c r="G56" s="95"/>
       <c r="H56" s="5"/>
@@ -5809,11 +5853,11 @@
       <c r="A57" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="31"/>
       <c r="G57" s="95"/>
       <c r="H57" s="5"/>
@@ -5838,11 +5882,11 @@
       <c r="A58" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="31"/>
       <c r="G58" s="95"/>
       <c r="H58" s="5"/>
@@ -5865,9 +5909,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="31"/>
       <c r="G59" s="95"/>
       <c r="H59" s="5"/>
@@ -5890,9 +5934,9 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="147"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="31"/>
       <c r="G60" s="95"/>
       <c r="H60" s="5"/>
@@ -5915,9 +5959,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="147"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="31"/>
       <c r="G61" s="95"/>
       <c r="H61" s="5"/>
@@ -5940,9 +5984,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="147"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="31"/>
       <c r="G62" s="95"/>
       <c r="H62" s="5"/>
@@ -5965,9 +6009,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="31"/>
       <c r="G63" s="95"/>
       <c r="H63" s="5"/>
@@ -5990,9 +6034,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="31"/>
       <c r="G64" s="95"/>
       <c r="H64" s="5"/>
@@ -6015,9 +6059,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="134"/>
       <c r="E65" s="32"/>
       <c r="G65" s="97"/>
       <c r="H65" s="98"/>
@@ -6050,51 +6094,67 @@
     <protectedRange sqref="W8:Y9" name="customEntities_1"/>
     <protectedRange sqref="W8:Y9" name="Contact Fields_3"/>
     <protectedRange sqref="V27:AC28 V41:AC41" name="customEntities_2"/>
-    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A29:F40 A42:U52" name="Questionnaire_2"/>
+    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:U52 A29:F40" name="Questionnaire_2"/>
     <protectedRange sqref="A55:Y65 AA55:AC65" name="Contact Fields_1_1"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:J26 O26:AK26 R8:R25 V10:AK25 V8:V9 Z8:AK9">
-    <cfRule type="expression" dxfId="83" priority="109">
+    <cfRule type="expression" dxfId="87" priority="113">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="110">
+    <cfRule type="expression" dxfId="86" priority="114">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:N26 N8">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="85" priority="95">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
+    <cfRule type="expression" dxfId="84" priority="96">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:Q10 O19:Q25 P11:Q18">
+    <cfRule type="expression" dxfId="83" priority="91">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="92">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23:U25 T9:U22">
+    <cfRule type="expression" dxfId="81" priority="89">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="90">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:M8">
     <cfRule type="expression" dxfId="79" priority="87">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -6102,287 +6162,279 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23:U25 T9:U22">
+  <conditionalFormatting sqref="S8:U8">
     <cfRule type="expression" dxfId="77" priority="85">
-      <formula>$C9="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="76" priority="86">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="75" priority="83">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U8">
-    <cfRule type="expression" dxfId="73" priority="81">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S22">
-    <cfRule type="expression" dxfId="71" priority="79">
+    <cfRule type="expression" dxfId="75" priority="83">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80">
+    <cfRule type="expression" dxfId="74" priority="84">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O18">
-    <cfRule type="expression" dxfId="69" priority="77">
+    <cfRule type="expression" dxfId="73" priority="81">
       <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78">
+    <cfRule type="expression" dxfId="72" priority="82">
       <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Y9">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="71" priority="79">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="70" priority="80">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 AA35:AG52 B34 A34:A36 C34:F36 A28:R28 A27:F27 J27 N27 R27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A41:R52 V41:AC41 V27:AG28">
-    <cfRule type="expression" dxfId="63" priority="65">
+  <conditionalFormatting sqref="Z29:AG34 AA35:AG52 A34:A36 C34:F36 A28:R28 A27:F27 J27 N27 R27 A29:F33 N29:N40 J29:J40 R29:R40 A41:R52 V41:AC41 V27:AG28 B34 A37:F40">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:AC39">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42:AC51">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V52:AC52">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V40:AC40">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="27" priority="69">
+    <cfRule type="expression" dxfId="31" priority="73">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="70">
+    <cfRule type="expression" dxfId="30" priority="74">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="29" priority="75">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72">
+    <cfRule type="expression" dxfId="28" priority="76">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="23" priority="73">
+    <cfRule type="expression" dxfId="27" priority="77">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="74">
+    <cfRule type="expression" dxfId="26" priority="78">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U28 S41:U52">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U30">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:S40">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U40">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:Q65">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:U65">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55:Y65">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -6390,7 +6442,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
+  <conditionalFormatting sqref="AA55:AC65">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -6398,20 +6450,20 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C55="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D55="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC65">
+  <conditionalFormatting sqref="B36">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C55="x"</formula>
+      <formula>$C36="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D55="x"</formula>
+      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -6421,7 +6473,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40" xr:uid="{A3F4F595-1876-481E-8AE6-637BC10AB6B0}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y24 Y25 AC7:AC25 I29:I40 M29:M40 Q29:Q40 U29:U39 Y29:Y40 AC29:AC40 I42:I52 M42:M52 Q42:Q52 U42:U51 U52 Y42:Y52 AC42:AC52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65 AC55:AC65" xr:uid="{8C7241BA-CE4A-4245-93A2-10C20438FE36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 I29:I40 M29:M40 Q29:Q40 U29:U39 Y29:Y40 AC29:AC40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC42:AC52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65 AC55:AC65" xr:uid="{8C7241BA-CE4A-4245-93A2-10C20438FE36}">
       <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6433,21 +6485,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6656,32 +6693,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6698,4 +6725,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SugarCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC263C-5E94-4E32-A721-512784C8EB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F77E42-9BF4-407F-80E2-E4012845DE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2050,32 +2050,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2095,17 +2080,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3877,8 +3877,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,38 +3943,38 @@
         <v>54</v>
       </c>
       <c r="E4" s="29"/>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="150" t="s">
+      <c r="K4" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="150" t="s">
+      <c r="O4" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="S4" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="W4" s="147" t="s">
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="W4" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="149"/>
-      <c r="AA4" s="147" t="s">
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
+      <c r="AA4" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="134"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4974,35 +4974,35 @@
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
-      <c r="G27" s="141" t="s">
+      <c r="G27" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="70"/>
-      <c r="K27" s="141" t="s">
+      <c r="K27" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
       <c r="N27" s="70"/>
-      <c r="O27" s="141" t="s">
+      <c r="O27" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
       <c r="R27" s="71"/>
-      <c r="S27" s="141" t="s">
+      <c r="S27" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="143"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="138"/>
       <c r="V27" s="71"/>
-      <c r="W27" s="144" t="s">
+      <c r="W27" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="146"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="141"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="122" t="s">
         <v>96</v>
@@ -5848,11 +5848,11 @@
       <c r="A55" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
       <c r="E55" s="30"/>
       <c r="G55" s="95"/>
       <c r="H55" s="5"/>
@@ -5877,11 +5877,11 @@
       <c r="A56" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="31"/>
       <c r="G56" s="95"/>
       <c r="H56" s="5"/>
@@ -5906,11 +5906,11 @@
       <c r="A57" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B57" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
+      <c r="C57" s="146"/>
+      <c r="D57" s="147"/>
       <c r="E57" s="31"/>
       <c r="G57" s="95"/>
       <c r="H57" s="5"/>
@@ -5935,11 +5935,11 @@
       <c r="A58" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="31"/>
       <c r="G58" s="95"/>
       <c r="H58" s="5"/>
@@ -5962,9 +5962,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="31"/>
       <c r="G59" s="95"/>
       <c r="H59" s="5"/>
@@ -5987,9 +5987,9 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="31"/>
       <c r="G60" s="95"/>
       <c r="H60" s="5"/>
@@ -6012,9 +6012,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="31"/>
       <c r="G61" s="95"/>
       <c r="H61" s="5"/>
@@ -6037,9 +6037,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="31"/>
       <c r="G62" s="95"/>
       <c r="H62" s="5"/>
@@ -6062,9 +6062,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="31"/>
       <c r="G63" s="95"/>
       <c r="H63" s="5"/>
@@ -6087,9 +6087,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="31"/>
       <c r="G64" s="95"/>
       <c r="H64" s="5"/>
@@ -6112,9 +6112,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="134"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="32"/>
       <c r="G65" s="97"/>
       <c r="H65" s="98"/>
@@ -6151,28 +6151,28 @@
     <protectedRange sqref="A55:Y65 AA55:AC65" name="Contact Fields_1_1"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:J26 O26:AK26 R8:R25 V10:AK25 V8:V9 Z8:AK9">
@@ -6511,15 +6511,12 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC25 Q7:Q25 M7:M25 I7:I25 Y7:Y25 U7:U25 Q42:Q52 I42:I52 M42:M52 U42:U52" xr:uid="{431B3996-F270-4C15-ABC5-F3DE1B386E1A}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42:Y52 Q29:Q40 M29:M40 I29:I40 AC42:AC52 AC29:AC40 Y29:Y40 U29:U40 U55:U65 Q55:Q65 Y55:Y65 M55:M65 I55:I65 AC55:AC65" xr:uid="{A3F4F595-1876-481E-8AE6-637BC10AB6B0}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 AC29:AC40 Y29:Y40 U29:U40 Q29:Q40 M29:M40 I29:I40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC42:AC52 AC55:AC65 Y55:Y64 Y65 U55:U65 Q55:Q65 M55:M65 I55:I65" xr:uid="{96542029-A803-42EC-9B70-78F4663F7CEC}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6529,6 +6526,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6737,15 +6743,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6753,6 +6750,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6767,14 +6772,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F77E42-9BF4-407F-80E2-E4012845DE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2BA25-1461-4EA4-9597-F91904261887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     </r>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>SugarCRM: Custom Entity</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -2050,17 +2050,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2080,32 +2095,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3878,7 +3878,7 @@
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3937,51 +3937,53 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="29"/>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="135" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="135" t="s">
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="S4" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="W4" s="132" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="W4" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134"/>
-      <c r="AA4" s="132" t="s">
+      <c r="X4" s="148"/>
+      <c r="Y4" s="149"/>
+      <c r="AA4" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="134"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="149"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>96</v>
+      </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="36" t="s">
@@ -4075,9 +4077,7 @@
       <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="40"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43"/>
@@ -4085,20 +4085,20 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="55"/>
@@ -4109,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U8" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W8" s="111" t="s">
         <v>18</v>
@@ -4127,27 +4127,27 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="34"/>
       <c r="G9" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="56" t="s">
         <v>17</v>
@@ -4157,10 +4157,10 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="56"/>
       <c r="S9" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" s="56" t="s">
         <v>17</v>
@@ -4178,27 +4178,27 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="34"/>
       <c r="G10" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="56" t="s">
         <v>17</v>
@@ -4208,10 +4208,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="56"/>
       <c r="S10" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U10" s="56" t="s">
         <v>17</v>
@@ -4225,46 +4225,46 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="34"/>
       <c r="G11" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U11" s="56" t="s">
         <v>17</v>
@@ -4288,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>17</v>
@@ -4298,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="56" t="s">
         <v>17</v>
@@ -4308,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="56" t="s">
         <v>17</v>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12" s="56" t="s">
         <v>17</v>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="54" t="s">
         <v>17</v>
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="54" t="s">
         <v>17</v>
@@ -4361,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="54" t="s">
         <v>17</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="54" t="s">
         <v>17</v>
@@ -4394,7 +4394,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="58" t="s">
         <v>17</v>
@@ -4404,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="58" t="s">
         <v>17</v>
@@ -4414,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="58" t="s">
         <v>17</v>
@@ -4423,7 +4423,7 @@
         <v>6</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U14" s="58" t="s">
         <v>17</v>
@@ -4447,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="60" t="s">
         <v>17</v>
@@ -4457,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="60" t="s">
         <v>17</v>
@@ -4467,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="60" t="s">
         <v>17</v>
@@ -4476,7 +4476,7 @@
         <v>7</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U15" s="60" t="s">
         <v>17</v>
@@ -4490,46 +4490,46 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="34"/>
       <c r="G16" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U16" s="56" t="s">
         <v>17</v>
@@ -4553,7 +4553,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="56" t="s">
         <v>17</v>
@@ -4563,7 +4563,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="56" t="s">
         <v>17</v>
@@ -4573,7 +4573,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="56" t="s">
         <v>17</v>
@@ -4582,7 +4582,7 @@
         <v>8</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>17</v>
@@ -4606,7 +4606,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="56" t="s">
         <v>17</v>
@@ -4616,17 +4616,17 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="56" t="s">
         <v>17</v>
@@ -4635,7 +4635,7 @@
         <v>9</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U18" s="56" t="s">
         <v>17</v>
@@ -4649,27 +4649,27 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="34"/>
       <c r="G19" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="56" t="s">
         <v>17</v>
@@ -4679,10 +4679,10 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="56"/>
       <c r="S19" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U19" s="56" t="s">
         <v>17</v>
@@ -4706,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>17</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" s="58" t="s">
         <v>17</v>
@@ -4726,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="58" t="s">
         <v>17</v>
@@ -4735,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U20" s="58" t="s">
         <v>17</v>
@@ -4759,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>17</v>
@@ -4769,7 +4769,7 @@
         <v>10</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="56" t="s">
         <v>17</v>
@@ -4779,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="56" t="s">
         <v>17</v>
@@ -4788,7 +4788,7 @@
         <v>10</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" s="56" t="s">
         <v>17</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="54" t="s">
         <v>17</v>
@@ -4822,17 +4822,17 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="54" t="s">
         <v>17</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="54" t="s">
         <v>17</v>
@@ -4849,17 +4849,17 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="34"/>
       <c r="G23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="I23" s="54" t="s">
         <v>17</v>
@@ -4884,17 +4884,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="65"/>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
       <c r="G24" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="I24" s="54" t="s">
         <v>17</v>
@@ -4968,54 +4968,54 @@
     </row>
     <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="136" t="s">
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="136" t="s">
+      <c r="P27" s="142"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="136" t="s">
+      <c r="T27" s="142"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="141"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="146"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB27" s="123"/>
       <c r="AC27" s="124"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="73" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>69</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -5079,15 +5079,15 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="76" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>71</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="76"/>
       <c r="E29" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="53"/>
       <c r="H29" s="6"/>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="81"/>
       <c r="C33" s="82"/>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="81"/>
       <c r="C34" s="82"/>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="81"/>
       <c r="C38" s="82"/>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="84"/>
       <c r="C39" s="85"/>
@@ -5405,10 +5405,10 @@
     </row>
     <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="82"/>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="81"/>
       <c r="C44" s="82"/>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="81"/>
       <c r="C45" s="82"/>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="81"/>
       <c r="C46" s="82"/>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="81"/>
       <c r="C47" s="82"/>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="81"/>
       <c r="C48" s="82"/>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="81"/>
       <c r="C49" s="82"/>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="81"/>
       <c r="C50" s="82"/>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="84"/>
       <c r="C51" s="85"/>
@@ -5846,13 +5846,13 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="144"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="30"/>
       <c r="G55" s="95"/>
       <c r="H55" s="5"/>
@@ -5875,13 +5875,13 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="136"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="31"/>
       <c r="G56" s="95"/>
       <c r="H56" s="5"/>
@@ -5904,13 +5904,13 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="31"/>
       <c r="G57" s="95"/>
       <c r="H57" s="5"/>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="145" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="31"/>
       <c r="G58" s="95"/>
       <c r="H58" s="5"/>
@@ -5962,9 +5962,9 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="31"/>
       <c r="G59" s="95"/>
       <c r="H59" s="5"/>
@@ -5987,9 +5987,9 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="147"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="31"/>
       <c r="G60" s="95"/>
       <c r="H60" s="5"/>
@@ -6012,9 +6012,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="147"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="31"/>
       <c r="G61" s="95"/>
       <c r="H61" s="5"/>
@@ -6037,9 +6037,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="147"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="31"/>
       <c r="G62" s="95"/>
       <c r="H62" s="5"/>
@@ -6062,9 +6062,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="31"/>
       <c r="G63" s="95"/>
       <c r="H63" s="5"/>
@@ -6087,9 +6087,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="31"/>
       <c r="G64" s="95"/>
       <c r="H64" s="5"/>
@@ -6112,9 +6112,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="134"/>
       <c r="E65" s="32"/>
       <c r="G65" s="97"/>
       <c r="H65" s="98"/>
@@ -6151,28 +6151,28 @@
     <protectedRange sqref="A55:Y65 AA55:AC65" name="Contact Fields_1_1"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:J26 O26:AK26 R8:R25 V10:AK25 V8:V9 Z8:AK9">
@@ -6526,15 +6526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6743,6 +6734,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6750,14 +6750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6772,6 +6764,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2BA25-1461-4EA4-9597-F91904261887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA58CA-FD9E-451A-BEF0-8F86E466AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$7:$D$25,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$AC$28:$AC$38,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$I$28:$I$38,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$7:$I$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!$AC$7:$AC$25</definedName>
+    <definedName name="checkbox">Specifications!$C$7:$D$29,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$AC$32:$AC$42,Specifications!$Y$32:$Y$42,Specifications!$U$32:$U$42,Specifications!$Q$32:$Q$42,Specifications!$I$32:$I$42,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$7:$I$29,Specifications!$Q$7:$Q$29,Specifications!$U$7:$U$29,Specifications!$Y$7:$Y$29,Specifications!$AC$7:$AC$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="105">
   <si>
     <t>Website</t>
   </si>
@@ -370,12 +373,36 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory_Field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,13 +484,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -503,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -544,15 +564,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -574,15 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -602,7 +604,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -620,46 +622,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -685,44 +648,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -968,19 +894,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1083,7 +996,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,26 +1009,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1127,8 +1022,19 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,85 +1046,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFCA1C17"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1251,88 +1081,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right style="thin">
         <color rgb="FF9DA600"/>
       </right>
@@ -1601,7 +1349,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1612,7 +1362,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1623,8 +1375,19 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color rgb="FFF4A4A2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4A4A2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,93 +1399,8 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF4A4A2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF4A4A2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFF4A4A2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFF4A4A2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF4A4A2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFF4A4A2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF4A4A2"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF4A4A2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF4A4A2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF4A4A2"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF4A4A2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,73 +1531,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,181 +1590,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,7 +1728,183 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2142,96 +1935,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2340,7 +2045,73 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2384,536 +2155,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14990691854609822"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -3110,11 +2353,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="88"/>
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="firstColumn" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3222,157 +2465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5732584" y="9771185"/>
-          <a:ext cx="205157" cy="203688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 79428"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Pfeil: nach rechts 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA8741D-5F51-4FF8-9BB7-CDEEB1D76471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5720275" y="9776460"/>
-          <a:ext cx="206915" cy="202516"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 79428"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14255</xdr:rowOff>
+      <xdr:colOff>971981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
+      <xdr:colOff>176278</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3387,8 +2488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5582529" y="5971190"/>
-          <a:ext cx="370157" cy="213653"/>
+          <a:off x="5588805" y="6636931"/>
+          <a:ext cx="369708" cy="216791"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3436,13 +2537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3507,13 +2608,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>156797</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>192698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3875,10 +2976,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,8 +3003,8 @@
     <col min="27" max="29" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1"/>
@@ -3914,8 +3015,8 @@
       <c r="G1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1"/>
@@ -3926,2596 +3027,2617 @@
       <c r="G2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:29" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="3" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:37" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="G4" s="150" t="s">
+      <c r="E4" s="21"/>
+      <c r="G4" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="150" t="s">
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="150" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="S4" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="W4" s="147" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="149"/>
-      <c r="AA4" s="147" t="s">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="104"/>
+      <c r="AA4" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
-    </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="104"/>
+    </row>
+    <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="U6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="106" t="s">
+      <c r="W6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="107" t="s">
+      <c r="X6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="108" t="s">
+      <c r="Y6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="106" t="s">
+      <c r="AA6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="107" t="s">
+      <c r="AB6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="108" t="s">
+      <c r="AC6" s="68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="33"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="54"/>
+    <row r="7" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="G7" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="54"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="54"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="54"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="110"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="110"/>
-    </row>
-    <row r="8" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="38"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="38"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="70"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="70"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="38"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="38"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="70"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="70"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="38"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="38"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="70"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="G8" s="55" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="25"/>
+      <c r="F10"/>
+      <c r="G10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="56"/>
-      <c r="R8"/>
-      <c r="S8" s="55" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="38"/>
+      <c r="R10"/>
+      <c r="S10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="W8" s="111" t="s">
+      <c r="V10"/>
+      <c r="W10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="112"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="Y10" s="70"/>
+      <c r="Z10"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="55" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="55" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="56"/>
-      <c r="S9" s="55" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="38"/>
+      <c r="S11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="56" t="s">
+      <c r="U11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="112"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="112"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="Y11" s="70"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="70"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="55" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="55" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="56"/>
-      <c r="S10" s="55" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="38"/>
+      <c r="S12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="56" t="s">
+      <c r="U12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="111"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="112"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="112"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="W12" s="69"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="70"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="70"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="55" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="55" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="56" t="s">
+      <c r="M13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="55" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="Q13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="56" t="s">
+      <c r="U13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="111"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="112"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="112"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="W13" s="69"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="70"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="70"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="55" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="55" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="55" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="55" t="s">
+      <c r="S14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="56" t="s">
+      <c r="U14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="111"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="112"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="112"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="W14" s="69"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="70"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="70"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="53" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="53" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="53" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="54" t="s">
+      <c r="Q15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="S15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="54" t="s">
+      <c r="U15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="111"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="112"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="112"/>
-    </row>
-    <row r="14" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="W15" s="69"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="70"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="70"/>
+    </row>
+    <row r="16" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="G14" s="57" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="25"/>
+      <c r="F16"/>
+      <c r="G16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="57" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="57" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="58" t="s">
+      <c r="Q16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="57" t="s">
+      <c r="R16"/>
+      <c r="S16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="45" t="s">
+      <c r="T16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="58" t="s">
+      <c r="U16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="114"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="115"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="115"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="V16"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="59" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="59" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="59" t="s">
+      <c r="N17" s="1"/>
+      <c r="O17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="59" t="s">
+      <c r="S17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="60" t="s">
+      <c r="U17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="111"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="112"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="112"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="W17" s="69"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="70"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="70"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="55" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="25"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="55" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="56" t="s">
+      <c r="M18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="55" t="s">
+      <c r="N18" s="1"/>
+      <c r="O18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="56" t="s">
+      <c r="Q18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="55" t="s">
+      <c r="S18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="56" t="s">
+      <c r="U18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="111"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="112"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="112"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="W18" s="69"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="70"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="70"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="55" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="25"/>
+      <c r="G19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="55" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="55" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="55" t="s">
+      <c r="S19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U17" s="56" t="s">
+      <c r="U19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="111"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="112"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="112"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="W19" s="69"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="70"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="70"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="55" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="55" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="55" t="s">
+      <c r="N20" s="1"/>
+      <c r="O20" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="55" t="s">
+      <c r="S20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="56" t="s">
+      <c r="U20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W18" s="111"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="112"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="112"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="W20" s="69"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="70"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="70"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="34"/>
-      <c r="G19" s="55" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="55" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="56"/>
-      <c r="S19" s="55" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="38"/>
+      <c r="S21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="56" t="s">
+      <c r="U21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W19" s="111"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="112"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="112"/>
-    </row>
-    <row r="20" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="W21" s="69"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="70"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="70"/>
+    </row>
+    <row r="22" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="57" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="25"/>
+      <c r="F22"/>
+      <c r="G22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="57" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="57" t="s">
+      <c r="N22" s="1"/>
+      <c r="O22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="45" t="s">
+      <c r="P22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="58" t="s">
+      <c r="Q22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="57" t="s">
+      <c r="R22"/>
+      <c r="S22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="45" t="s">
+      <c r="T22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="58" t="s">
+      <c r="U22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="114"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="115"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="115"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="V22"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="55" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="25"/>
+      <c r="G23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="55" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="56" t="s">
+      <c r="M23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="55" t="s">
+      <c r="N23" s="1"/>
+      <c r="O23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="55" t="s">
+      <c r="S23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="56" t="s">
+      <c r="U23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W21" s="111"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="112"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="112"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="W23" s="69"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="70"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="70"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="53" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="53" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="53" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" s="54" t="s">
+      <c r="Q24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="54"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="110"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="110"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="37"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="38"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="70"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="70"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="53" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="25"/>
+      <c r="G25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I25" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="54"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="54"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="110"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="110"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="38"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="38"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="70"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="70"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="G24" s="53" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="25"/>
+      <c r="G26" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="54" t="s">
+      <c r="I26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="54"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="54"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="110"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="110"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="35"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="63"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="63"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="118"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="118"/>
-    </row>
-    <row r="26" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="9"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="9"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="49"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128" t="s">
+      <c r="O26" s="37"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="38"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="38"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="70"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="70"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="25"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="38"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="38"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="70"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="70"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="25"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="38"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="38"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="70"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="70"/>
+    </row>
+    <row r="29" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="26"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="41"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="73"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="73"/>
+    </row>
+    <row r="30" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="8"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="8"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="33"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="8"/>
+    </row>
+    <row r="31" spans="1:37" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="G27" s="141" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="G31" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="141" t="s">
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="141" t="s">
+      <c r="L31" s="97"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="141" t="s">
+      <c r="P31" s="97"/>
+      <c r="Q31" s="98"/>
+      <c r="S31" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="144" t="s">
+      <c r="T31" s="97"/>
+      <c r="U31" s="98"/>
+      <c r="W31" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="122" t="s">
+      <c r="X31" s="100"/>
+      <c r="Y31" s="101"/>
+      <c r="AA31" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="124"/>
-    </row>
-    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72" t="s">
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="76"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B32" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="73" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G32" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="100" t="s">
+      <c r="H32" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="102" t="s">
+      <c r="I32" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="101" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="100" t="s">
+      <c r="L32" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="102" t="s">
+      <c r="M32" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="N32" s="1"/>
+      <c r="O32" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S28" s="50" t="s">
+      <c r="S32" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="51" t="s">
+      <c r="T32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="52" t="s">
+      <c r="U32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="W28" s="106" t="s">
+      <c r="W32" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="X28" s="107" t="s">
+      <c r="X32" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Y28" s="108" t="s">
+      <c r="Y32" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AA28" s="106" t="s">
+      <c r="AA32" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AB28" s="107" t="s">
+      <c r="AB32" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AC28" s="108" t="s">
+      <c r="AC32" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="56"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="56"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="56"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="56"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="112"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="112"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="78"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="56"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="56"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="56"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="56"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="112"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="112"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="83"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="56"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="56"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="56"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="56"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="112"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="112"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="56"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="56"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="56"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="56"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="112"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="112"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="83"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="56"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="56"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="56"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="56"/>
-      <c r="W33" s="111"/>
+        <v>69</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="38"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="38"/>
+      <c r="W33" s="69"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="112"/>
-      <c r="AA33" s="111"/>
+      <c r="Y33" s="70"/>
+      <c r="AA33" s="69"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="112"/>
+      <c r="AC33" s="70"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="83"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="56"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="56"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="56"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="56"/>
-      <c r="W34" s="111"/>
+        <v>72</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="25"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="38"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="38"/>
+      <c r="W34" s="69"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="112"/>
-      <c r="AA34" s="111"/>
+      <c r="Y34" s="70"/>
+      <c r="AA34" s="69"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="112"/>
+      <c r="AC34" s="70"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="83"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="56"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="56"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="56"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="56"/>
-      <c r="W35" s="111"/>
+        <v>73</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="25"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="38"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="38"/>
+      <c r="W35" s="69"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="112"/>
-      <c r="AA35" s="111"/>
+      <c r="Y35" s="70"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="112"/>
+      <c r="AC35" s="70"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="83"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="56"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="56"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="56"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="56"/>
-      <c r="W36" s="111"/>
+        <v>74</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="25"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="38"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="38"/>
+      <c r="W36" s="69"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="112"/>
-      <c r="AA36" s="111"/>
+      <c r="Y36" s="70"/>
+      <c r="AA36" s="69"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="112"/>
+      <c r="AC36" s="70"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="83"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="56"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="56"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="56"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="56"/>
-      <c r="W37" s="111"/>
+        <v>75</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="25"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="38"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="38"/>
+      <c r="W37" s="69"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="112"/>
-      <c r="AA37" s="111"/>
+      <c r="Y37" s="70"/>
+      <c r="AA37" s="69"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="112"/>
+      <c r="AC37" s="70"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="83"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="56"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="56"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="56"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="56"/>
-      <c r="W38" s="111"/>
+        <v>76</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="25"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="38"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="38"/>
+      <c r="W38" s="69"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="112"/>
-      <c r="AA38" s="111"/>
+      <c r="Y38" s="70"/>
+      <c r="AA38" s="69"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="112"/>
+      <c r="AC38" s="70"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="86"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="54"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="54"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="54"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="54"/>
-      <c r="W39" s="109"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="110"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="110"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="89"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="63"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="63"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="118"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="118"/>
-    </row>
-    <row r="41" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="P41" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="U41" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="W41" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="X41" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y41" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA41" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB41" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC41" s="127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="G42" s="55"/>
+        <v>77</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="25"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="38"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="38"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="70"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="70"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="25"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="38"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="38"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="70"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="70"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="25"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="38"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="38"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="70"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="70"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="25"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="56"/>
-      <c r="K42" s="55"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="56"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="60"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="60"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="121"/>
-      <c r="AA42" s="119"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="121"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="38"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="38"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="70"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="70"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="83"/>
-      <c r="G43" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="25"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="56"/>
-      <c r="K43" s="55"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="56"/>
-      <c r="O43" s="55"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="37"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="56"/>
-      <c r="S43" s="55"/>
+      <c r="Q43" s="38"/>
+      <c r="S43" s="37"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="56"/>
-      <c r="W43" s="111"/>
+      <c r="U43" s="38"/>
+      <c r="W43" s="69"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="112"/>
-      <c r="AA43" s="111"/>
+      <c r="Y43" s="70"/>
+      <c r="AA43" s="69"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="112"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="56"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="56"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="56"/>
-      <c r="S44" s="55"/>
+      <c r="AC43" s="70"/>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41"/>
+      <c r="S44" s="37"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="56"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="112"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="112"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="83"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="56"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="56"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="56"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="56"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="112"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="112"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U44" s="38"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="73"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="73"/>
+    </row>
+    <row r="45" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="T45" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="U45" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y45" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA45" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB45" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC45" s="79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="83"/>
-      <c r="G46" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="25"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="56"/>
-      <c r="K46" s="55"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="56"/>
-      <c r="O46" s="55"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="56"/>
-      <c r="S46" s="55"/>
+      <c r="Q46" s="38"/>
+      <c r="S46" s="37"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="56"/>
-      <c r="W46" s="111"/>
+      <c r="U46" s="38"/>
+      <c r="W46" s="69"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="112"/>
-      <c r="AA46" s="111"/>
+      <c r="Y46" s="70"/>
+      <c r="AA46" s="69"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="112"/>
+      <c r="AC46" s="70"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="83"/>
-      <c r="G47" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="25"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="56"/>
-      <c r="K47" s="55"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="56"/>
-      <c r="O47" s="55"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="56"/>
-      <c r="S47" s="55"/>
+      <c r="Q47" s="38"/>
+      <c r="S47" s="37"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="56"/>
-      <c r="W47" s="111"/>
+      <c r="U47" s="38"/>
+      <c r="W47" s="69"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="112"/>
-      <c r="AA47" s="111"/>
+      <c r="Y47" s="70"/>
+      <c r="AA47" s="69"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="112"/>
+      <c r="AC47" s="70"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="83"/>
-      <c r="G48" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="25"/>
+      <c r="G48" s="37"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="56"/>
-      <c r="K48" s="55"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="56"/>
-      <c r="O48" s="55"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="56"/>
-      <c r="S48" s="55"/>
+      <c r="Q48" s="38"/>
+      <c r="S48" s="37"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="56"/>
-      <c r="W48" s="111"/>
+      <c r="U48" s="38"/>
+      <c r="W48" s="69"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="112"/>
-      <c r="AA48" s="111"/>
+      <c r="Y48" s="70"/>
+      <c r="AA48" s="69"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="112"/>
+      <c r="AC48" s="70"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="83"/>
-      <c r="G49" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="25"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="56"/>
-      <c r="K49" s="55"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="56"/>
-      <c r="O49" s="55"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="56"/>
-      <c r="S49" s="55"/>
+      <c r="Q49" s="38"/>
+      <c r="S49" s="37"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="56"/>
-      <c r="W49" s="111"/>
+      <c r="U49" s="38"/>
+      <c r="W49" s="69"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="112"/>
-      <c r="AA49" s="111"/>
+      <c r="Y49" s="70"/>
+      <c r="AA49" s="69"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="112"/>
+      <c r="AC49" s="70"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="83"/>
-      <c r="G50" s="55"/>
+        <v>76</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="25"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="56"/>
-      <c r="K50" s="55"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="56"/>
-      <c r="O50" s="55"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="56"/>
-      <c r="S50" s="55"/>
+      <c r="Q50" s="38"/>
+      <c r="S50" s="37"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="56"/>
-      <c r="W50" s="111"/>
+      <c r="U50" s="38"/>
+      <c r="W50" s="69"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="112"/>
-      <c r="AA50" s="111"/>
+      <c r="Y50" s="70"/>
+      <c r="AA50" s="69"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="112"/>
+      <c r="AC50" s="70"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="25"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="38"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="38"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="70"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="70"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="25"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="38"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="38"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="70"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="70"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="25"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="38"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="38"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="70"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="70"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="25"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="38"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="38"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="70"/>
+      <c r="AA54" s="69"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="70"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="86"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="54"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="54"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="54"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="54"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="110"/>
-      <c r="AA51" s="109"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="110"/>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="89"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="63"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="63"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="63"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="63"/>
-      <c r="W52" s="116"/>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="118"/>
-      <c r="AA52" s="116"/>
-      <c r="AB52" s="117"/>
-      <c r="AC52" s="118"/>
-    </row>
-    <row r="53" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="9"/>
-      <c r="O53" s="8"/>
-      <c r="Q53" s="9"/>
-      <c r="S53" s="8"/>
-      <c r="U53" s="9"/>
-      <c r="W53" s="8"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="130" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="25"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="38"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="38"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="70"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="70"/>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="41"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="41"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="72"/>
+      <c r="Y56" s="73"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="73"/>
+    </row>
+    <row r="57" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="7"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="7"/>
+      <c r="Q57" s="8"/>
+      <c r="S57" s="7"/>
+      <c r="U57" s="8"/>
+      <c r="W57" s="7"/>
+      <c r="Y57" s="8"/>
+    </row>
+    <row r="58" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B58" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="92" t="s">
+      <c r="G58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="93" t="s">
+      <c r="H58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="94" t="s">
+      <c r="I58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="92" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="93" t="s">
+      <c r="L58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M54" s="94" t="s">
+      <c r="M58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O54" s="92" t="s">
+      <c r="N58" s="1"/>
+      <c r="O58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="P54" s="93" t="s">
+      <c r="P58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q54" s="94" t="s">
+      <c r="Q58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="S54" s="92" t="s">
+      <c r="S58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="T54" s="93" t="s">
+      <c r="T58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="U54" s="94" t="s">
+      <c r="U58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="W54" s="92" t="s">
+      <c r="W58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="X54" s="93" t="s">
+      <c r="X58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Y54" s="94" t="s">
+      <c r="Y58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AA54" s="92" t="s">
+      <c r="AA58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AB54" s="93" t="s">
+      <c r="AB58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC58" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+    <row r="59" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="56"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="56"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="56"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="56"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="138" t="s">
+      <c r="B60" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="30"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="96"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="96"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="96"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="96"/>
-      <c r="W55" s="95"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="96"/>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="96"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="23"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="56"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="56"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="56"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="56"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="135" t="s">
+      <c r="B61" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="31"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="96"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="96"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="96"/>
-      <c r="S56" s="95"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="96"/>
-      <c r="W56" s="95"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="96"/>
-      <c r="AA56" s="95"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="96"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="23"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="56"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="56"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="56"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="56"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B62" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="31"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="96"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="96"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="96"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="96"/>
-      <c r="W57" s="95"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="96"/>
-      <c r="AA57" s="95"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="96"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="23"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="56"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="56"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="56"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="56"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B63" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="31"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="96"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="96"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="96"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="96"/>
-      <c r="W58" s="95"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="96"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="96"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="31"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="96"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="96"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="96"/>
-      <c r="S59" s="95"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="96"/>
-      <c r="W59" s="95"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="96"/>
-      <c r="AA59" s="95"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="96"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="31"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="96"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="96"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="96"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="96"/>
-      <c r="W60" s="95"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="96"/>
-      <c r="AA60" s="95"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="96"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="31"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="96"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="96"/>
-      <c r="O61" s="95"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="96"/>
-      <c r="S61" s="95"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="96"/>
-      <c r="W61" s="95"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="96"/>
-      <c r="AA61" s="95"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="96"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="31"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="96"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="96"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="96"/>
-      <c r="S62" s="95"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="96"/>
-      <c r="W62" s="95"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="96"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="96"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="31"/>
-      <c r="G63" s="95"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="23"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="96"/>
-      <c r="K63" s="95"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="96"/>
-      <c r="O63" s="95"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="55"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="96"/>
-      <c r="S63" s="95"/>
+      <c r="Q63" s="56"/>
+      <c r="S63" s="55"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="96"/>
-      <c r="W63" s="95"/>
+      <c r="U63" s="56"/>
+      <c r="W63" s="55"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="96"/>
-      <c r="AA63" s="95"/>
+      <c r="Y63" s="56"/>
+      <c r="AA63" s="55"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="96"/>
+      <c r="AC63" s="56"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="31"/>
-      <c r="G64" s="95"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="23"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="96"/>
-      <c r="K64" s="95"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="55"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="96"/>
-      <c r="O64" s="95"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="55"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="96"/>
-      <c r="S64" s="95"/>
+      <c r="Q64" s="56"/>
+      <c r="S64" s="55"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="96"/>
-      <c r="W64" s="95"/>
+      <c r="U64" s="56"/>
+      <c r="W64" s="55"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="96"/>
-      <c r="AA64" s="95"/>
+      <c r="Y64" s="56"/>
+      <c r="AA64" s="55"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="96"/>
-    </row>
-    <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="32"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="99"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="99"/>
-      <c r="O65" s="97"/>
-      <c r="P65" s="98"/>
-      <c r="Q65" s="99"/>
-      <c r="S65" s="97"/>
-      <c r="T65" s="98"/>
-      <c r="U65" s="99"/>
-      <c r="W65" s="97"/>
-      <c r="X65" s="98"/>
-      <c r="Y65" s="99"/>
-      <c r="AA65" s="97"/>
-      <c r="AB65" s="98"/>
-      <c r="AC65" s="99"/>
-    </row>
-    <row r="66" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AC64" s="56"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="23"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="56"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="56"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="56"/>
+      <c r="AA65" s="55"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="56"/>
+    </row>
+    <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="24"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="59"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
+      <c r="U66" s="59"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="58"/>
+      <c r="Y66" s="59"/>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="58"/>
+      <c r="AC66" s="59"/>
+    </row>
+    <row r="67" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="W4:AC7 W10:AC26 Z8:AC9" name="customEntities"/>
+    <protectedRange sqref="W4:AC6 W12:Y30 W7:Y9 AA7:AC30 Z7:Z66" name="customEntities"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="R7:R25 A7:N25 S8:U8 S9:S22 O11:O18 V7:AC7 V10:AC25 V8:V9 Z8:AC9" name="Contact Fields"/>
-    <protectedRange sqref="O7:Q10 O19:Q25 P11:Q18" name="Contact Fields_1"/>
-    <protectedRange sqref="S7:U7 S23:U25 T9:U22" name="Contact Fields_2"/>
-    <protectedRange sqref="W8:Y9" name="customEntities_1"/>
-    <protectedRange sqref="W8:Y9" name="Contact Fields_3"/>
-    <protectedRange sqref="V27:AC28 V41:AC41" name="customEntities_2"/>
-    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A29:F40 A42:U52" name="Questionnaire_2"/>
-    <protectedRange sqref="A55:Y65 AA55:AC65" name="Contact Fields_1_1"/>
+    <protectedRange sqref="A7:E29 S10:U10 S11:S24 O13:O20 W7:Y9 W12:Y29 G7:I29 K7:M29 AA7:AC29 B44:C44 B56:C56" name="Contact Fields"/>
+    <protectedRange sqref="O7:Q12 O21:Q29 P13:Q20" name="Contact Fields_1"/>
+    <protectedRange sqref="S7:U9 S25:U29 T11:U24" name="Contact Fields_2"/>
+    <protectedRange sqref="W10:Y11" name="customEntities_1"/>
+    <protectedRange sqref="W10:Y11" name="Contact Fields_3"/>
+    <protectedRange sqref="W31:Y32 W45:Y45 AA31:AC32 AA45:AC45" name="customEntities_2"/>
+    <protectedRange sqref="A33:E43 G46:I56 K46:M56 O46:Q56 S46:U56 A46:E55 A44 D44:E44 A56 D56:E56" name="Questionnaire_2"/>
+    <protectedRange sqref="A65:E66 B59:E59 A60:E64 W59:Y66 S59:U66 O59:Q66 K59:M66 G59:I66 AA59:AC66" name="Contact Fields_1_1"/>
+    <protectedRange sqref="A59" name="Questionnaire"/>
   </protectedRanges>
-  <mergeCells count="22">
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
+  <mergeCells count="17">
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:J26 O26:AK26 R8:R25 V10:AK25 V8:V9 Z8:AK9">
-    <cfRule type="expression" dxfId="83" priority="109">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="O30:Q30 A7:E30 S30:U30 AA29:AC30 G7:I30 W7:Y30">
+    <cfRule type="expression" dxfId="49" priority="125">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="110">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="48" priority="126">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:N26 N8">
-    <cfRule type="expression" dxfId="81" priority="91">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:Q10 O19:Q25 P11:Q18">
-    <cfRule type="expression" dxfId="79" priority="87">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="88">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23:U25 T9:U22">
-    <cfRule type="expression" dxfId="77" priority="85">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="75" priority="83">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U8">
-    <cfRule type="expression" dxfId="73" priority="81">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S22">
-    <cfRule type="expression" dxfId="71" priority="79">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O18">
-    <cfRule type="expression" dxfId="69" priority="77">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78">
-      <formula>$D11="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8:Y9">
-    <cfRule type="expression" dxfId="67" priority="75">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 AA35:AG52 B34 A34:A36 C34:F36 A28:R28 A27:F27 J27 N27 R27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A41:R52 V41:AC41 V27:AG28">
-    <cfRule type="expression" dxfId="63" priority="65">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$D34="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="59" priority="61">
+  <conditionalFormatting sqref="K29:M30">
+    <cfRule type="expression" dxfId="47" priority="107">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="46" priority="108">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="57" priority="59">
+  <conditionalFormatting sqref="O29:Q29">
+    <cfRule type="expression" dxfId="45" priority="103">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="44" priority="104">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="55" priority="57">
+  <conditionalFormatting sqref="S29:U29">
+    <cfRule type="expression" dxfId="43" priority="101">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="102">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10:Y11">
+    <cfRule type="expression" dxfId="41" priority="91">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="92">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57 AA57:AC57">
+    <cfRule type="expression" dxfId="39" priority="83">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="84">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:E32 A45:E45 W45:Y45 W31:Y32 G45:I45 G32:I32 K32:M32 K45:M45 O45:Q45 O32:Q32 AA31:AC32 G56:I56 K56:M56 O56:Q56 AA44:AC45 AA56:AC56 A56 A44 D44:E44 D56:E56">
+    <cfRule type="expression" dxfId="37" priority="81">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="36" priority="82">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="O44">
+    <cfRule type="expression" dxfId="35" priority="73">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="34" priority="74">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="P44:Q44">
+    <cfRule type="expression" dxfId="33" priority="71">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="32" priority="72">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="expression" dxfId="31" priority="65">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="30" priority="66">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="L44:M44">
+    <cfRule type="expression" dxfId="29" priority="63">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="28" priority="64">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="expression" dxfId="27" priority="57">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="26" priority="58">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="H44:I44">
+    <cfRule type="expression" dxfId="25" priority="55">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="24" priority="56">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="W56:Y56 AA56:AC56">
+    <cfRule type="expression" dxfId="23" priority="49">
+      <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="22" priority="50">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="W44:Y44 AA44:AC44">
+    <cfRule type="expression" dxfId="21" priority="47">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="20" priority="48">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="S32:U32 S45:U45">
+    <cfRule type="expression" dxfId="19" priority="45">
+      <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="46">
+      <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AC39">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="K59:M66 G59:I66 O59:Q66 S59:U66 W59:Y66 AA59:AC66">
+    <cfRule type="expression" dxfId="17" priority="29">
+      <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="30">
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V42:AC51">
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$C42="x"</formula>
+  <conditionalFormatting sqref="A46:E55 A33:E43">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$D42="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V52:AC52">
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$C52="x"</formula>
+  <conditionalFormatting sqref="S46:U55 O46:Q55 K46:M55 G46:I55 G33:I43 K33:M43 O33:Q43 S33:U44 S7:U28 O7:Q28 K7:M28">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$D52="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AC40">
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$C40="x"</formula>
+  <conditionalFormatting sqref="S56:U56">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$D40="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="27" priority="69">
-      <formula>$C53="x"</formula>
+  <conditionalFormatting sqref="W46:Y55 AA46:AC55 AA33:AC43 W33:Y43 AA7:AC28">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="70">
-      <formula>$D53="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="25" priority="71">
-      <formula>$C38="x"</formula>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72">
-      <formula>$D38="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="23" priority="73">
-      <formula>$C40="x"</formula>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="74">
-      <formula>$D40="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:U28 S41:U52">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29:S30">
-    <cfRule type="expression" dxfId="19" priority="27">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T29:U30">
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S31:S40">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:U40">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC65">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C55="x"</formula>
+      <formula>$C56="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D55="x"</formula>
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C33:D44 C46:D56" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 AC7:AC25 AC29:AC40 Y29:Y40 U29:U40 Q29:Q40 M29:M40 I29:I40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 AC42:AC52 AC55:AC65 Y55:Y64 Y65 U55:U65 Q55:Q65 M55:M65 I55:I65" xr:uid="{96542029-A803-42EC-9B70-78F4663F7CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 AC33:AC44 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M46:M56 Q46:Q56 Y46:Y56 AC46:AC56 U46:U56 M59:M66 Q59:Q66 U59:U66 Y59:Y66 AC59:AC66 I59:I66" xr:uid="{96542029-A803-42EC-9B70-78F4663F7CEC}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA58CA-FD9E-451A-BEF0-8F86E466AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFBCE63-CF5B-486F-B692-1819379562F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="105">
   <si>
     <t>Website</t>
   </si>
@@ -1667,32 +1667,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1721,8 +1697,32 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,8 +2978,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,38 +3044,38 @@
         <v>53</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="S4" s="105" t="s">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="S4" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="W4" s="102" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="W4" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
-      <c r="AA4" s="102" t="s">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
+      <c r="AA4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
     </row>
     <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,7 +3301,9 @@
       <c r="X10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="70"/>
+      <c r="Y10" s="70" t="s">
+        <v>17</v>
+      </c>
       <c r="Z10"/>
       <c r="AA10" s="69"/>
       <c r="AB10" s="5"/>
@@ -3361,7 +3363,9 @@
       <c r="X11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="70"/>
+      <c r="Y11" s="70" t="s">
+        <v>17</v>
+      </c>
       <c r="AA11" s="69"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="70"/>
@@ -4242,33 +4246,33 @@
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
-      <c r="G31" s="96" t="s">
+      <c r="G31" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="96" t="s">
+      <c r="K31" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="97"/>
-      <c r="M31" s="98"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="96" t="s">
+      <c r="O31" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="98"/>
-      <c r="S31" s="96" t="s">
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="S31" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="T31" s="97"/>
-      <c r="U31" s="98"/>
-      <c r="W31" s="99" t="s">
+      <c r="T31" s="89"/>
+      <c r="U31" s="90"/>
+      <c r="W31" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="101"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="93"/>
       <c r="AA31" s="74" t="s">
         <v>95</v>
       </c>
@@ -5167,9 +5171,9 @@
       <c r="A59" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="95"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
       <c r="E59" s="22"/>
       <c r="G59" s="55"/>
       <c r="H59" s="5"/>
@@ -5196,11 +5200,11 @@
       <c r="A60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="23"/>
       <c r="G60" s="55"/>
       <c r="H60" s="5"/>
@@ -5227,11 +5231,11 @@
       <c r="A61" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
       <c r="E61" s="23"/>
       <c r="G61" s="55"/>
       <c r="H61" s="5"/>
@@ -5318,9 +5322,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="23"/>
       <c r="G64" s="55"/>
       <c r="H64" s="5"/>
@@ -5345,9 +5349,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="23"/>
       <c r="G65" s="55"/>
       <c r="H65" s="5"/>
@@ -5372,9 +5376,9 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
       <c r="E66" s="24"/>
       <c r="G66" s="57"/>
       <c r="H66" s="58"/>
@@ -5414,23 +5418,23 @@
     <protectedRange sqref="A59" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="17">
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="S31:U31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="O30:Q30 A7:E30 S30:U30 AA29:AC30 G7:I30 W7:Y30">
@@ -5648,6 +5652,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5856,15 +5869,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5872,6 +5876,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5886,14 +5898,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SugarCRM_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFBCE63-CF5B-486F-B692-1819379562F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C9B0B-8EA3-43E7-BAF9-B315F5464AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,8 +1667,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1678,6 +1684,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1706,23 +1721,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,8 +2978,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I59" activeCellId="23" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 I33:I44 M33:M44 Q33:Q44 U33:U44 Y33:Y44 AC33:AC44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 AC59:AC66 Y59:Y66 U59:U66 Q59:Q66 M59:M66 I59:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,38 +3044,38 @@
         <v>53</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="S4" s="87" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="S4" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="W4" s="94" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
-      <c r="AA4" s="94" t="s">
+      <c r="X4" s="100"/>
+      <c r="Y4" s="101"/>
+      <c r="AA4" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="101"/>
     </row>
     <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4246,33 +4246,33 @@
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
-      <c r="G31" s="88" t="s">
+      <c r="G31" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="90"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="92"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="88" t="s">
+      <c r="K31" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="88" t="s">
+      <c r="O31" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="90"/>
-      <c r="S31" s="88" t="s">
+      <c r="P31" s="91"/>
+      <c r="Q31" s="92"/>
+      <c r="S31" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="T31" s="89"/>
-      <c r="U31" s="90"/>
-      <c r="W31" s="91" t="s">
+      <c r="T31" s="91"/>
+      <c r="U31" s="92"/>
+      <c r="W31" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="93"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="98"/>
       <c r="AA31" s="74" t="s">
         <v>95</v>
       </c>
@@ -5171,9 +5171,9 @@
       <c r="A59" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="22"/>
       <c r="G59" s="55"/>
       <c r="H59" s="5"/>
@@ -5200,11 +5200,11 @@
       <c r="A60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
       <c r="E60" s="23"/>
       <c r="G60" s="55"/>
       <c r="H60" s="5"/>
@@ -5231,11 +5231,11 @@
       <c r="A61" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89"/>
       <c r="E61" s="23"/>
       <c r="G61" s="55"/>
       <c r="H61" s="5"/>
@@ -5322,9 +5322,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
       <c r="E64" s="23"/>
       <c r="G64" s="55"/>
       <c r="H64" s="5"/>
@@ -5349,9 +5349,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="102"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="89"/>
       <c r="E65" s="23"/>
       <c r="G65" s="55"/>
       <c r="H65" s="5"/>
@@ -5376,9 +5376,9 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="105"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="24"/>
       <c r="G66" s="57"/>
       <c r="H66" s="58"/>
@@ -5418,12 +5418,6 @@
     <protectedRange sqref="A59" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
     <mergeCell ref="W31:Y31"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
@@ -5435,6 +5429,12 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="S31:U31"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="O30:Q30 A7:E30 S30:U30 AA29:AC30 G7:I30 W7:Y30">
@@ -5641,8 +5641,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D29 C33:D44 C46:D56" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 AC33:AC44 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M46:M56 Q46:Q56 Y46:Y56 AC46:AC56 U46:U56 M59:M66 Q59:Q66 U59:U66 Y59:Y66 AC59:AC66 I59:I66" xr:uid="{96542029-A803-42EC-9B70-78F4663F7CEC}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 AC7:AC29 I33:I44 M33:M44 Q33:Q44 U33:U44 Y33:Y44 AC33:AC44 I46:I56 M46:M56 Q46:Q56 U46:U56 Y46:Y56 AC46:AC56 AC59:AC66 Y59:Y66 U59:U66 Q59:Q66 M59:M66 I59:I66" xr:uid="{1528E3E7-962E-4E3F-BEC2-78430FDE1CEC}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5652,15 +5652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5869,6 +5860,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5876,14 +5876,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5898,6 +5890,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
